--- a/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
+++ b/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\SYBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\SYBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDAB5C5-8633-4907-8498-54E6756C7A2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22032" windowHeight="11832"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SYBSoEVP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Share of Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>battery</t>
   </si>
@@ -47,13 +53,25 @@
   </si>
   <si>
     <t>Page 4</t>
+  </si>
+  <si>
+    <t>The battery is a significant part of the price of an electric vehicle. The battery cost after the start</t>
+  </si>
+  <si>
+    <t>year is handled through endogenous learning.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Share of Price (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +83,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,18 +119,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -118,6 +147,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>94326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDF6676-85DD-4A90-9CA9-E0FA20D1D5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134224" y="284826"/>
+          <a:ext cx="5182601" cy="1287047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -196,6 +274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,82 +518,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.109375" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{920CBD68-2DED-4F1F-91FF-002F16D263D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>0.33300000000000002</v>
